--- a/Excel Templates/income_statement/Basic_Style_IS/StatementXL_Income_Statement_Template_Basic.xlsx
+++ b/Excel Templates/income_statement/Basic_Style_IS/StatementXL_Income_Statement_Template_Basic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\OneDrive\Desktop\StatementXL_Version_2\Excel Templates\income_statement\Basic_Style_IS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A61A50C-7663-42A7-8F0C-A805D70FCEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA1E37-B05F-461F-8FD9-D785510E04B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -379,29 +379,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -414,7 +399,6 @@
     <xf numFmtId="44" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -423,27 +407,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -460,62 +423,89 @@
     <xf numFmtId="44" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -823,164 +813,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="2.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="15">
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="14" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+    <row r="6" spans="1:3" s="25" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="6">
         <f>C7+C8</f>
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
+    <row r="10" spans="1:3" s="25" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="6">
         <f>SUM(C12:C14)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="16"/>
+    <row r="16" spans="1:3" s="25" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="6">
         <f>C9-C15</f>
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="16"/>
+    <row r="18" spans="2:3" s="25" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="43"/>
-    </row>
-    <row r="20" spans="2:3" s="14" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="2:3" s="25" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1">
@@ -988,12 +978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="26"/>
+    <row r="24" spans="2:3" s="25" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1">
@@ -1001,30 +991,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:3" s="14" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
+    <row r="26" spans="2:3" s="25" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="2:3" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="13">
         <v>-5</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1">
@@ -1033,35 +1023,35 @@
       </c>
     </row>
     <row r="31" spans="2:3" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="2:3" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="2:3" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="6">
         <f>C25+C30</f>
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:3" s="14" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="29"/>
+    <row r="33" spans="2:3" s="25" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="34"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="6">
         <f>C32-C34</f>
         <v>7</v>
       </c>
@@ -1073,12 +1063,12 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:XFD8 A13:XFD14 A21:XFD22 A29:XFD29 A34:XFD34">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37 A9:XFD9 A15:XFD15 A17:XFD17 A23:XFD23 A25:XFD25 A30:XFD30 A35:XFD35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A9:XFD9 A15:XFD15 A17:XFD17 A23:XFD23 A25:XFD25 A30:XFD30 A35:XFD35 G37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
